--- a/data/trans_orig/P34B04-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Dificultad-trans_orig.xlsx
@@ -660,7 +660,7 @@
         <v>0.1522932259452127</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.139551251422151</v>
+        <v>0.1395512514221511</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1984391140761007</v>
+        <v>0.2024945984839576</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2141750714813107</v>
+        <v>0.2062939025537559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1485089409333234</v>
+        <v>0.1523522319175195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004777563265166941</v>
+        <v>0.004491708042592482</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03049817612337278</v>
+        <v>0.0312521565354594</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02967765720974787</v>
+        <v>0.02836364271317245</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1030593180748794</v>
+        <v>0.1017477962191545</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1199136746696941</v>
+        <v>0.1226883662059063</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09432121640548424</v>
+        <v>0.09644257481254102</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.31428326453868</v>
+        <v>0.3237261631821289</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3414131592017826</v>
+        <v>0.3320164658562431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3639357172249799</v>
+        <v>0.3733120554659034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03401774742675819</v>
+        <v>0.0314851598270442</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0788319723175285</v>
+        <v>0.07989940955596352</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1248439652748995</v>
+        <v>0.1226192302502058</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1617113435983427</v>
+        <v>0.1600053459514715</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1848741542953972</v>
+        <v>0.1875623694268789</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1962636255838082</v>
+        <v>0.2108347812119923</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3705574904083013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4144557792346542</v>
+        <v>0.4144557792346543</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.04188059179113948</v>
@@ -769,7 +769,7 @@
         <v>0.228373939168934</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.2279879970174866</v>
+        <v>0.2279879970174865</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.287663939881576</v>
+        <v>0.2774949686158091</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2973490822835006</v>
+        <v>0.3040612039543387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3261930943693536</v>
+        <v>0.3277869549954464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02290306925080594</v>
+        <v>0.02295688628673819</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06688248832216988</v>
+        <v>0.06917526126186781</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0393527644261275</v>
+        <v>0.04204928117319633</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1520161441653699</v>
+        <v>0.1523473221412569</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1895419406771915</v>
+        <v>0.186975039130029</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1843662877738561</v>
+        <v>0.1800568524672749</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4511684976742563</v>
+        <v>0.4359596501223975</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.453608801871923</v>
+        <v>0.4636846491184817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5224506715859348</v>
+        <v>0.537205871914097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0767395693040952</v>
+        <v>0.07789441841804709</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.141668064478899</v>
+        <v>0.142652532176552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1112009221098531</v>
+        <v>0.1091402928207409</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2322346835288338</v>
+        <v>0.2326145938283161</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2749136198082313</v>
+        <v>0.2729640305628411</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2840962980379712</v>
+        <v>0.2821493672641611</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.1777662344609789</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2807370627649318</v>
+        <v>0.2807370627649319</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2951175090191315</v>
+        <v>0.2894835112774616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2327438448067322</v>
+        <v>0.2355365135579529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3955272561293809</v>
+        <v>0.3799623615807194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01940434564577196</v>
+        <v>0.01860999559980975</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02145543311232527</v>
+        <v>0.02495255256772876</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04962063830998229</v>
+        <v>0.0493750333550899</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1672822246441501</v>
+        <v>0.1663334142322229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1385020842165197</v>
+        <v>0.1419518103012337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2293406006706281</v>
+        <v>0.2275332814036357</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4536044547375824</v>
+        <v>0.4540391472508571</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3882347581330157</v>
+        <v>0.3923450796593225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6065418504624381</v>
+        <v>0.597550568157219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06397243029319452</v>
+        <v>0.06227478656769699</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08309849636957142</v>
+        <v>0.08682839804872232</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1280282075064474</v>
+        <v>0.1247221474229946</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2500850572404759</v>
+        <v>0.2516804438796944</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2282625240274962</v>
+        <v>0.2294022014264714</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.348128553892437</v>
+        <v>0.3451064485325845</v>
       </c>
     </row>
     <row r="13">
@@ -978,7 +978,7 @@
         <v>0.1041788488624771</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1682464369676567</v>
+        <v>0.1682464369676568</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.3063057185058178</v>
@@ -987,7 +987,7 @@
         <v>0.3154835926765645</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3469082064869168</v>
+        <v>0.3469082064869167</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3921837476001802</v>
+        <v>0.3885505368194241</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4094534594459308</v>
+        <v>0.4140108883716024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4039390790320999</v>
+        <v>0.4215797930704183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05011909045467412</v>
+        <v>0.05142268830703538</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05937409341024867</v>
+        <v>0.06445809772782894</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1222617814673091</v>
+        <v>0.123155912000137</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2431384428802705</v>
+        <v>0.2444531178971287</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2531359424328025</v>
+        <v>0.2494025037812139</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2870162746926981</v>
+        <v>0.291376996959126</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.64103195946977</v>
+        <v>0.6270448610268943</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6817042370357445</v>
+        <v>0.6861161740874332</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6306096497329763</v>
+        <v>0.632186674189797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1772361147364769</v>
+        <v>0.1859736526950615</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1692662550175883</v>
+        <v>0.1729545912864516</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.228194149549018</v>
+        <v>0.2322415450495435</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3796757849110396</v>
+        <v>0.383789268065306</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3943531386931167</v>
+        <v>0.3921535167714485</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4104081852244698</v>
+        <v>0.41551428641015</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.3413805533943346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4367339793835305</v>
+        <v>0.4367339793835304</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.0385605937838953</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3065818252901918</v>
+        <v>0.3126303113070068</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3033681676570346</v>
+        <v>0.304647257725661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3816209953315112</v>
+        <v>0.3881272802890945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02690017780841892</v>
+        <v>0.02730447300791324</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05448502583252301</v>
+        <v>0.05526231751198006</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07567478540091514</v>
+        <v>0.07674224801543206</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1710198118819055</v>
+        <v>0.1705351213616519</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1828659094679787</v>
+        <v>0.1808420202962284</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2350695578966118</v>
+        <v>0.2318238134686213</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3902662253570373</v>
+        <v>0.3917617987055437</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3849789330150131</v>
+        <v>0.3809085693694007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4932780560291787</v>
+        <v>0.4980485213797742</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05537584505843802</v>
+        <v>0.0549963013036884</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08986162769990572</v>
+        <v>0.08937011707653447</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.117646733831639</v>
+        <v>0.1204988469915957</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2119067530152381</v>
+        <v>0.213831184990308</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2260945773831096</v>
+        <v>0.2240355226858833</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2945960983709479</v>
+        <v>0.2893213397204015</v>
       </c>
     </row>
     <row r="19">
